--- a/鶴山さんポートフォリオ原料.xlsx
+++ b/鶴山さんポートフォリオ原料.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keita\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CBDD3-3E0E-408D-90AB-7862916F8490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB317057-A860-4697-83C3-60B0F7451B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{E6966460-B6A7-4E39-9E93-4D0DCCD64B04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>具材</t>
     <rPh sb="0" eb="1">
@@ -352,32 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゆで卵(卵白）(茹で)</t>
-    <rPh sb="2" eb="3">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆで卵(卵黄）(茹で)</t>
-    <rPh sb="2" eb="3">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>卵(卵白)(生)</t>
     <rPh sb="0" eb="1">
       <t>タマゴ</t>
@@ -404,22 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>白米(炊飯器炊き立て）</t>
-    <rPh sb="0" eb="2">
-      <t>ハクマイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>スイハンキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鶏むね肉ミンチ(焼き)</t>
     <rPh sb="0" eb="1">
       <t>トリ</t>
@@ -734,22 +692,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>めんつゆ(2倍濃縮　お塩ひかえめ　塩分30％カット)(ヤマキ株式会社)</t>
-    <rPh sb="6" eb="7">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ノウシュク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エンブン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鶏がらスープの素(味の素)</t>
     <rPh sb="0" eb="1">
       <t>トリ</t>
@@ -809,6 +751,295 @@
       <t>ソウ</t>
     </rPh>
     <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産豚ヒレ(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>コクサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモンペッパー(株式会社オーバーシーズ)</t>
+    <rPh sb="8" eb="10">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">おろしにんにく(TOPVALU) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片栗粉</t>
+    <rPh sb="0" eb="3">
+      <t>カタクリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(青い部分)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(白い部分)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯖(焼き)</t>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉肩ロース(アメリカ産)(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(白い部分)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(青い部分)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉細切れ(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コマギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白米</t>
+    <rPh sb="0" eb="2">
+      <t>ハクマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆで卵(卵白)(茹で)</t>
+    <rPh sb="8" eb="9">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆで卵(卵黄)(茹で)</t>
+    <rPh sb="8" eb="9">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めんつゆ(お塩ひかえめ　塩分30％カット)(ヤマキ株式会社)</t>
+    <rPh sb="12" eb="14">
+      <t>エンブン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポン酢</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵黄)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵白)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素洗いごぼう</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <rPh sb="0" eb="2">
+      <t>ダイコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素洗いごぼう(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">無添加米こうじみそ(TOPVALU) </t>
+    <rPh sb="0" eb="3">
+      <t>ムテンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">板こんにゃく(黒)(茹で)(TOPVALU) </t>
+    <rPh sb="0" eb="1">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おろし生しょうが(ハウス食品)</t>
+    <rPh sb="3" eb="4">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産豚肉かたロース切り落とし(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>コクサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -843,12 +1074,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -891,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +1142,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E478034-ECAD-46A6-A9E4-2504CA6C91FD}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1238,46 +1484,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2426,8 +2672,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
+      <c r="A28" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2470,8 +2716,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
+      <c r="A29" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2515,7 +2761,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2559,7 +2805,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2603,7 +2849,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2647,7 +2893,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2691,7 +2937,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2735,7 +2981,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2779,7 +3025,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2823,7 +3069,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2867,7 +3113,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2911,7 +3157,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2955,7 +3201,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2999,7 +3245,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3043,7 +3289,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3087,7 +3333,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3131,7 +3377,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3175,7 +3421,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3219,7 +3465,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -3263,7 +3509,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3307,7 +3553,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3351,7 +3597,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3395,7 +3641,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3439,7 +3685,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3483,7 +3729,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3527,7 +3773,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3571,7 +3817,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3615,7 +3861,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3659,7 +3905,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -3703,7 +3949,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3747,7 +3993,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3791,7 +4037,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3835,7 +4081,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3879,7 +4125,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3923,7 +4169,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3967,7 +4213,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4011,7 +4257,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -4055,7 +4301,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -4099,7 +4345,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4143,7 +4389,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -4187,7 +4433,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4231,7 +4477,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4275,7 +4521,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4319,7 +4565,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4363,47 +4609,985 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>8</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76">
+        <v>6</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>8</v>
-      </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
-        <v>5</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>8</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>8</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>8</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>8</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>8</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>8</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>9</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92">
+        <v>8</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>9</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <v>8</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
